--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H2">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.605175333333333</v>
+        <v>0.3309496666666666</v>
       </c>
       <c r="N2">
-        <v>19.815526</v>
+        <v>0.9928489999999999</v>
       </c>
       <c r="O2">
-        <v>0.5779586116201393</v>
+        <v>0.02814339759365984</v>
       </c>
       <c r="P2">
-        <v>0.5779586116201394</v>
+        <v>0.02814339759365983</v>
       </c>
       <c r="Q2">
-        <v>14.39528609559</v>
+        <v>0.3034145440834444</v>
       </c>
       <c r="R2">
-        <v>129.55757486031</v>
+        <v>2.730730896751</v>
       </c>
       <c r="S2">
-        <v>0.280022044665811</v>
+        <v>0.007974310619297082</v>
       </c>
       <c r="T2">
-        <v>0.2800220446658111</v>
+        <v>0.007974310619297081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H3">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.823282</v>
+        <v>6.605175333333333</v>
       </c>
       <c r="N3">
-        <v>14.469846</v>
+        <v>19.815526</v>
       </c>
       <c r="O3">
-        <v>0.4220413883798607</v>
+        <v>0.561692892620634</v>
       </c>
       <c r="P3">
-        <v>0.4220413883798607</v>
+        <v>0.561692892620634</v>
       </c>
       <c r="Q3">
-        <v>10.51183667439</v>
+        <v>6.055622543874888</v>
       </c>
       <c r="R3">
-        <v>94.60653006951001</v>
+        <v>54.50060289487399</v>
       </c>
       <c r="S3">
-        <v>0.2044798539750803</v>
+        <v>0.1591532644024997</v>
       </c>
       <c r="T3">
-        <v>0.2044798539750803</v>
+        <v>0.1591532644024997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7348883333333333</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H4">
-        <v>2.204665</v>
+        <v>2.750399</v>
       </c>
       <c r="I4">
-        <v>0.1633732264179005</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J4">
-        <v>0.1633732264179005</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.605175333333333</v>
+        <v>4.823282</v>
       </c>
       <c r="N4">
-        <v>19.815526</v>
+        <v>14.469846</v>
       </c>
       <c r="O4">
-        <v>0.5779586116201393</v>
+        <v>0.410163709785706</v>
       </c>
       <c r="P4">
-        <v>0.5779586116201394</v>
+        <v>0.410163709785706</v>
       </c>
       <c r="Q4">
-        <v>4.854066292087777</v>
+        <v>4.421983329839333</v>
       </c>
       <c r="R4">
-        <v>43.68659662878999</v>
+        <v>39.797849968554</v>
       </c>
       <c r="S4">
-        <v>0.09442296311639242</v>
+        <v>0.1162181224107527</v>
       </c>
       <c r="T4">
-        <v>0.09442296311639244</v>
+        <v>0.1162181224107527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.823282</v>
+        <v>0.3309496666666666</v>
       </c>
       <c r="N5">
-        <v>14.469846</v>
+        <v>0.9928489999999999</v>
       </c>
       <c r="O5">
-        <v>0.4220413883798607</v>
+        <v>0.02814339759365984</v>
       </c>
       <c r="P5">
-        <v>0.4220413883798607</v>
+        <v>0.02814339759365983</v>
       </c>
       <c r="Q5">
-        <v>3.544573670176666</v>
+        <v>0.2432110489538888</v>
       </c>
       <c r="R5">
-        <v>31.90116303159</v>
+        <v>2.188899440585</v>
       </c>
       <c r="S5">
-        <v>0.06895026330150805</v>
+        <v>0.006392048397884307</v>
       </c>
       <c r="T5">
-        <v>0.06895026330150805</v>
+        <v>0.006392048397884307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.583934333333333</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H6">
-        <v>4.751803</v>
+        <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.3521248749412083</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J6">
-        <v>0.3521248749412082</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>19.815526</v>
       </c>
       <c r="O6">
-        <v>0.5779586116201393</v>
+        <v>0.561692892620634</v>
       </c>
       <c r="P6">
-        <v>0.5779586116201394</v>
+        <v>0.561692892620634</v>
       </c>
       <c r="Q6">
-        <v>10.46216398815311</v>
+        <v>4.854066292087777</v>
       </c>
       <c r="R6">
-        <v>94.15947589337799</v>
+        <v>43.68659662878999</v>
       </c>
       <c r="S6">
-        <v>0.2035136038379359</v>
+        <v>0.1275740834925903</v>
       </c>
       <c r="T6">
-        <v>0.2035136038379359</v>
+        <v>0.1275740834925904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.583934333333333</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H7">
-        <v>4.751803</v>
+        <v>2.204665</v>
       </c>
       <c r="I7">
-        <v>0.3521248749412083</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J7">
-        <v>0.3521248749412082</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>14.469846</v>
       </c>
       <c r="O7">
-        <v>0.4220413883798607</v>
+        <v>0.410163709785706</v>
       </c>
       <c r="P7">
-        <v>0.4220413883798607</v>
+        <v>0.410163709785706</v>
       </c>
       <c r="Q7">
-        <v>7.639761959148666</v>
+        <v>3.544573670176666</v>
       </c>
       <c r="R7">
-        <v>68.757857632338</v>
+        <v>31.90116303159</v>
       </c>
       <c r="S7">
-        <v>0.1486112711032723</v>
+        <v>0.09315812972761484</v>
       </c>
       <c r="T7">
-        <v>0.1486112711032723</v>
+        <v>0.09315812972761485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.583934333333334</v>
+      </c>
+      <c r="H8">
+        <v>4.751803000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="J8">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3309496666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.9928489999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.02814339759365984</v>
+      </c>
+      <c r="P8">
+        <v>0.02814339759365983</v>
+      </c>
+      <c r="Q8">
+        <v>0.5242025396385556</v>
+      </c>
+      <c r="R8">
+        <v>4.717822856747</v>
+      </c>
+      <c r="S8">
+        <v>0.01377703857647844</v>
+      </c>
+      <c r="T8">
+        <v>0.01377703857647844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.583934333333334</v>
+      </c>
+      <c r="H9">
+        <v>4.751803000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="J9">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.605175333333333</v>
+      </c>
+      <c r="N9">
+        <v>19.815526</v>
+      </c>
+      <c r="O9">
+        <v>0.561692892620634</v>
+      </c>
+      <c r="P9">
+        <v>0.561692892620634</v>
+      </c>
+      <c r="Q9">
+        <v>10.46216398815311</v>
+      </c>
+      <c r="R9">
+        <v>94.159475893378</v>
+      </c>
+      <c r="S9">
+        <v>0.274965544725544</v>
+      </c>
+      <c r="T9">
+        <v>0.274965544725544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.583934333333334</v>
+      </c>
+      <c r="H10">
+        <v>4.751803000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="J10">
+        <v>0.4895300409493609</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.823282</v>
+      </c>
+      <c r="N10">
+        <v>14.469846</v>
+      </c>
+      <c r="O10">
+        <v>0.410163709785706</v>
+      </c>
+      <c r="P10">
+        <v>0.410163709785706</v>
+      </c>
+      <c r="Q10">
+        <v>7.639761959148667</v>
+      </c>
+      <c r="R10">
+        <v>68.75785763233802</v>
+      </c>
+      <c r="S10">
+        <v>0.2007874576473385</v>
+      </c>
+      <c r="T10">
+        <v>0.2007874576473385</v>
       </c>
     </row>
   </sheetData>
